--- a/presupuesto 2023.xlsx
+++ b/presupuesto 2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcarval\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aplicacion\PERSONAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuesto 2023" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Carvajal</author>
-    <author>michael</author>
   </authors>
   <commentList>
     <comment ref="E16" authorId="0" shapeId="0">
@@ -182,54 +181,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>michael:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Salon de Belleza, GYM, etc.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A54" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>michael:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Barberia, GYM, etc.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -240,6 +191,96 @@
     <author>Michael Carval</author>
   </authors>
   <commentList>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Carval:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12-01-23: 3,43 COMPRA PARA COMPARTIR EN FLIA BETANCOURT
+14-01-23:
+20 CARNE
+35 BODEGA
+36,54 EL MAYORISTA, EXEDENTES DE FACTURAS, POLLOS</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Michael Carval</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Carval:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FECHA: 14-01-2023
+14 JUGOS PARA EL COLEGIO
+CHUCHERIAS PARA MERIENDA
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Michael Carval:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FARMATODO: 14-01-2023
+ANEXO Loratadina y Jarabe Tos</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -260,7 +301,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-FARMATODO 13-01-23 Anexo 2 Jabones y 1 Baño de Crema</t>
+FARMATODO 13-01-23 Anexo 1 Baño de Crema</t>
         </r>
       </text>
     </comment>
@@ -268,13 +309,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Carval</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +335,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-FARMATODO 13-01-23 ANEXO 2 JABONES</t>
+FECHA 14-01-2023
+9 JUGOS PARA MERIENDA
+CHUCHERIAS VARIADAS</t>
         </r>
       </text>
     </comment>
@@ -302,7 +345,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Carval</author>
@@ -336,7 +379,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Michael Carval</author>
@@ -362,7 +405,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-FARMATODO 13-01-23 
+FARMATODO 14-01-23 
 TRATAMIENTO FEBRERO
 LOSARTAN Y AMLODIPINA</t>
         </r>
@@ -388,7 +431,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-FARMATODO 13-01-23 2 JABONES, DESODORANTE CHAMPU</t>
+FARMATODO 14-01-23 2 JABONES, DESODORANTE CHAMPU</t>
         </r>
       </text>
     </comment>
@@ -397,7 +440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="100">
   <si>
     <t>AHORRO INICIAL</t>
   </si>
@@ -668,6 +711,36 @@
   <si>
     <t>PRESUPUESTO FAMILIAR 2023</t>
   </si>
+  <si>
+    <t>pollos</t>
+  </si>
+  <si>
+    <t>carne</t>
+  </si>
+  <si>
+    <t>farmatodo</t>
+  </si>
+  <si>
+    <t>panaderia</t>
+  </si>
+  <si>
+    <t>bolsas</t>
+  </si>
+  <si>
+    <t>137.85</t>
+  </si>
+  <si>
+    <t>a favor</t>
+  </si>
+  <si>
+    <t>detergentes</t>
+  </si>
+  <si>
+    <t>ruth y mio</t>
+  </si>
+  <si>
+    <t>comun</t>
+  </si>
 </sst>
 </file>
 
@@ -676,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ &quot;Bs. F.&quot;\ * #,##0.00_ ;_ &quot;Bs. F.&quot;\ * \-#,##0.00_ ;_ &quot;Bs. F.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,19 +791,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -894,7 +954,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -918,13 +978,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -939,64 +999,52 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <font>
         <b/>
@@ -1095,7 +1143,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <color rgb="FFFFFF00"/>
       </font>
@@ -1119,19 +1167,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <color rgb="FFFFFF00"/>
       </font>
@@ -1144,150 +1180,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <color rgb="FFFFFF00"/>
       </font>
@@ -1492,162 +1384,6 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <color rgb="FFFFFF00"/>
       </font>
@@ -2235,6 +1971,174 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <color rgb="FFFFFF00"/>
@@ -2345,26 +2249,114 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -2375,17 +2367,107 @@
               <c:f>'Presupuesto 2023'!$B$22:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>454</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2418,17 +2500,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -2439,17 +2611,107 @@
               <c:f>'Presupuesto 2023'!$C$22:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>489</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2482,17 +2744,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -2503,17 +2855,107 @@
               <c:f>'Presupuesto 2023'!$D$22:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>414</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2546,17 +2988,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -2567,17 +3099,107 @@
               <c:f>'Presupuesto 2023'!$E$22:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>394</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2610,17 +3232,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -2631,17 +3343,107 @@
               <c:f>'Presupuesto 2023'!$F$22:$F$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>409</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2674,17 +3476,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -2695,17 +3587,107 @@
               <c:f>'Presupuesto 2023'!$G$22:$G$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>394</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2738,17 +3720,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -2759,17 +3831,107 @@
               <c:f>'Presupuesto 2023'!$H$22:$H$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>439</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2802,17 +3964,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -2823,17 +4075,107 @@
               <c:f>'Presupuesto 2023'!$I$22:$I$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>374</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2866,17 +4208,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -2887,17 +4319,107 @@
               <c:f>'Presupuesto 2023'!$J$22:$J$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>379</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2930,17 +4452,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -2951,17 +4563,107 @@
               <c:f>'Presupuesto 2023'!$K$22:$K$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>474</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2994,17 +4696,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -3015,17 +4807,107 @@
               <c:f>'Presupuesto 2023'!$L$22:$L$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>384</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3058,17 +4940,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -3079,17 +5051,107 @@
               <c:f>'Presupuesto 2023'!$M$22:$M$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>454</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3122,17 +5184,107 @@
             <c:strRef>
               <c:f>'Presupuesto 2023'!$A$22:$A$62</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>GASTOS OBLIGATORIOS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Energia Electrica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Telefono en Casa</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Telefono Celulares</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cable</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tranporte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Michell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Colegio</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Juguetes</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Alimentos</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Michael D</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ruth</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Ropa y Calzado</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Prod. Hig. Personal</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Cuidado Personal</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Plan Medico</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Michael J</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>GASTOS NECESARIOS</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>GASTOS OCASIONALES</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>OTROS</c:v>
                 </c:pt>
               </c:strCache>
@@ -3143,17 +5295,17 @@
               <c:f>'Presupuesto 2023'!$N$22:$N$62</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="31">
                   <c:v>5058</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="32">
                   <c:v>280</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3513,8 +5665,8 @@
   </sheetPr>
   <dimension ref="A8:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -3524,54 +5676,54 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="33">
         <v>900</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -4213,7 +6365,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
@@ -4255,7 +6407,7 @@
       </c>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
@@ -4297,7 +6449,7 @@
       </c>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
@@ -4339,7 +6491,7 @@
       </c>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
@@ -4381,7 +6533,7 @@
       </c>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>33</v>
       </c>
@@ -4423,7 +6575,7 @@
       </c>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
@@ -4465,7 +6617,7 @@
       </c>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
@@ -4507,7 +6659,7 @@
       </c>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
@@ -4549,7 +6701,7 @@
       </c>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>63</v>
       </c>
@@ -4591,7 +6743,7 @@
       </c>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>36</v>
       </c>
@@ -4633,7 +6785,7 @@
       </c>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>37</v>
       </c>
@@ -4675,7 +6827,7 @@
       </c>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>39</v>
       </c>
@@ -4717,7 +6869,7 @@
       </c>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>60</v>
       </c>
@@ -4771,7 +6923,7 @@
       </c>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
@@ -4813,7 +6965,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>63</v>
       </c>
@@ -4855,7 +7007,7 @@
       </c>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>36</v>
       </c>
@@ -4897,7 +7049,7 @@
       </c>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>37</v>
       </c>
@@ -4939,7 +7091,7 @@
       </c>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>39</v>
       </c>
@@ -4981,7 +7133,7 @@
       </c>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>34</v>
       </c>
@@ -5023,7 +7175,7 @@
       </c>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>62</v>
       </c>
@@ -5077,7 +7229,7 @@
       </c>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>40</v>
       </c>
@@ -5119,7 +7271,7 @@
       </c>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>39</v>
       </c>
@@ -5161,7 +7313,7 @@
       </c>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>38</v>
       </c>
@@ -5203,7 +7355,7 @@
       </c>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>37</v>
       </c>
@@ -5245,7 +7397,7 @@
       </c>
       <c r="N50" s="8"/>
     </row>
-    <row r="51" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>28</v>
       </c>
@@ -5299,7 +7451,7 @@
       </c>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>40</v>
       </c>
@@ -5341,7 +7493,7 @@
       </c>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>39</v>
       </c>
@@ -5383,7 +7535,7 @@
       </c>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>38</v>
       </c>
@@ -5425,7 +7577,7 @@
       </c>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="1:14" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>37</v>
       </c>
@@ -5467,7 +7619,7 @@
       </c>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:14" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>61</v>
       </c>
@@ -5521,7 +7673,7 @@
       </c>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:14" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>26</v>
       </c>
@@ -6521,14 +8673,144 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1">
+        <v>311.95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>274.20999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>30.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>311.95</v>
+      </c>
+      <c r="G10">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>260.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f>SUM(E10:E15)</f>
+        <v>710.69</v>
+      </c>
+      <c r="F16">
+        <f>+E16/G10</f>
+        <v>36.539331619537279</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>304.37</v>
+      </c>
+      <c r="H24">
+        <f>+G24/H23</f>
+        <v>15.786825726141078</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6554,7 +8836,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -6692,13 +8974,13 @@
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="36">
         <f>SUM(B2:E6)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="5">
         <f>-B7+'Presupuesto 2023'!B26</f>
         <v>8</v>
@@ -6798,13 +9080,13 @@
       <c r="A13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="36">
         <f>SUM(B8:E12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="5">
         <f>-B13+'Presupuesto 2023'!C26</f>
         <v>408</v>
@@ -6904,13 +9186,13 @@
       <c r="A19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="36">
         <f>SUM(B14:E18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="5">
         <f>-B19+'Presupuesto 2023'!D26</f>
         <v>408</v>
@@ -7010,13 +9292,13 @@
       <c r="A25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="36">
         <f>SUM(B20:E24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="5">
         <f>-B25+'Presupuesto 2023'!E26</f>
         <v>208</v>
@@ -7116,13 +9398,13 @@
       <c r="A31" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="36">
         <f>SUM(B26:E30)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="5">
         <f>-B31+'Presupuesto 2023'!F26</f>
         <v>508</v>
@@ -7222,13 +9504,13 @@
       <c r="A37" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="36">
         <f>SUM(B32:E36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="5">
         <f>-B37+'Presupuesto 2023'!G26</f>
         <v>408</v>
@@ -7328,13 +9610,13 @@
       <c r="A43" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="36">
         <f>SUM(B38:E42)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="5">
         <f>-B43+'Presupuesto 2023'!H26</f>
         <v>308</v>
@@ -7434,13 +9716,13 @@
       <c r="A49" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="36">
         <f>SUM(B44:E48)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="5">
         <f>-B49+'Presupuesto 2023'!I26</f>
         <v>408</v>
@@ -7540,13 +9822,13 @@
       <c r="A55" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="36">
         <f>SUM(B50:E54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
       <c r="F55" s="5">
         <f>-B55+'Presupuesto 2023'!J26</f>
         <v>408</v>
@@ -7646,13 +9928,13 @@
       <c r="A61" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="36">
         <f>SUM(B56:E60)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="34"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="38"/>
       <c r="F61" s="5">
         <f>-B61+'Presupuesto 2023'!K26</f>
         <v>208</v>
@@ -7752,13 +10034,13 @@
       <c r="A67" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="36">
         <f>SUM(B62:E66)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="34"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="38"/>
       <c r="F67" s="5">
         <f>-B67+'Presupuesto 2023'!L26</f>
         <v>408</v>
@@ -7858,26 +10140,26 @@
       <c r="A73" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="36">
         <f>SUM(B68:E72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="34"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="38"/>
       <c r="F73" s="5">
         <f>-B73+'Presupuesto 2023'!M26</f>
         <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="5">
         <f>SUM(F7,F13,F19,F25,F31,F37,F43,F49,F55,F61,F67,F73)</f>
         <v>4096</v>
@@ -8250,14 +10532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -8375,26 +10657,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="23">
-        <v>3.43</v>
+        <f>3.43+36.54+35+20</f>
+        <v>94.97</v>
       </c>
       <c r="H3" s="23">
         <v>0</v>
       </c>
       <c r="I3" s="23">
         <f>+MICHELL!G3</f>
-        <v>5.92</v>
+        <v>18.98</v>
       </c>
       <c r="J3" s="23">
         <f>+'MICHAEL D'!G3</f>
-        <v>1.35</v>
+        <v>10</v>
       </c>
       <c r="K3" s="23">
         <f>+RUTH!F3</f>
-        <v>10.95</v>
+        <v>11.4</v>
       </c>
       <c r="L3" s="23">
         <f>+'MICHAEL J'!F3</f>
-        <v>15.39</v>
+        <v>15.329999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8522,29 +10805,29 @@
         <f>+'MICHAEL J'!F6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="39"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="36">
         <f>SUM(B2:L6)</f>
-        <v>37.04</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+        <v>150.68</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="5">
         <f>-B7+'Presupuesto 2023'!B57</f>
-        <v>416.96</v>
+        <v>303.32</v>
       </c>
     </row>
     <row r="8" spans="1:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -8766,20 +11049,20 @@
       <c r="A13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="36">
         <f>SUM(B8:L12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="5">
         <f>-B13+'Presupuesto 2023'!C57</f>
         <v>489</v>
@@ -9004,20 +11287,20 @@
       <c r="A19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="36">
         <f>SUM(B14:L18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="5">
         <f>-B19+'Presupuesto 2023'!D57</f>
         <v>414</v>
@@ -9242,20 +11525,20 @@
       <c r="A25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="36">
         <f>SUM(B20:L24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="5">
         <f>-B25+'Presupuesto 2023'!E57</f>
         <v>394</v>
@@ -9480,20 +11763,20 @@
       <c r="A31" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="36">
         <f>SUM(B26:L30)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
       <c r="M31" s="5">
         <f>-B31+'Presupuesto 2023'!F57</f>
         <v>409</v>
@@ -9718,20 +12001,20 @@
       <c r="A37" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="36">
         <f>SUM(B32:L36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
       <c r="M37" s="5">
         <f>-B37+'Presupuesto 2023'!G57</f>
         <v>394</v>
@@ -9956,20 +12239,20 @@
       <c r="A43" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="36">
         <f>SUM(B38:L42)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
       <c r="M43" s="5">
         <f>-B43+'Presupuesto 2023'!H57</f>
         <v>439</v>
@@ -10194,20 +12477,20 @@
       <c r="A49" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="36">
         <f>SUM(B44:L48)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
       <c r="M49" s="5">
         <f>-B49+'Presupuesto 2023'!I57</f>
         <v>374</v>
@@ -10432,20 +12715,20 @@
       <c r="A55" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="36">
         <f>SUM(B50:L54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
       <c r="M55" s="5">
         <f>-B55+'Presupuesto 2023'!J57</f>
         <v>379</v>
@@ -10670,20 +12953,20 @@
       <c r="A61" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="36">
         <f>SUM(B56:L60)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
       <c r="M61" s="5">
         <f>-B61+'Presupuesto 2023'!K57</f>
         <v>474</v>
@@ -10908,20 +13191,20 @@
       <c r="A67" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="36">
         <f>SUM(B62:L66)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
       <c r="M67" s="5">
         <f>-B67+'Presupuesto 2023'!L57</f>
         <v>384</v>
@@ -11146,43 +13429,43 @@
       <c r="A73" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="36">
         <f>SUM(B68:L72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
       <c r="M73" s="5">
         <f>-B73+'Presupuesto 2023'!M57</f>
         <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
       <c r="M74" s="5">
         <f>SUM(M7,M13,M19,M25,M31,M37,M43,M49,M55,M61,M67,M73)</f>
-        <v>5020.96</v>
+        <v>4907.32</v>
       </c>
     </row>
   </sheetData>
@@ -11310,12 +13593,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:L6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -11561,10 +13845,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -11603,7 +13887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>69</v>
       </c>
@@ -11628,7 +13912,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>70</v>
       </c>
@@ -11636,24 +13920,24 @@
         <v>0</v>
       </c>
       <c r="C3" s="23">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="F3" s="23">
-        <v>5.92</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="G3" s="23">
         <f>SUM(B3:F3)</f>
-        <v>5.92</v>
+        <v>18.98</v>
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>71</v>
       </c>
@@ -11678,7 +13962,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>72</v>
       </c>
@@ -11703,7 +13987,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>73</v>
       </c>
@@ -11728,22 +14012,22 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="36">
         <f>SUM(B2:F6)</f>
-        <v>5.92</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+        <v>18.98</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="24"/>
       <c r="H7" s="5">
         <f>-B7+'Presupuesto 2023'!B39</f>
-        <v>14.08</v>
+        <v>1.0199999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -11875,14 +14159,14 @@
       <c r="A13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="36">
         <f>SUM(B8:F12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="24"/>
       <c r="H13" s="5">
         <f>-B13+'Presupuesto 2023'!C39</f>
@@ -12018,14 +14302,14 @@
       <c r="A19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="36">
         <f>SUM(B14:F18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="24"/>
       <c r="H19" s="5">
         <f>-B19+'Presupuesto 2023'!D39</f>
@@ -12161,14 +14445,14 @@
       <c r="A25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="36">
         <f>SUM(B20:F24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="24"/>
       <c r="H25" s="5">
         <f>-B25+'Presupuesto 2023'!E39</f>
@@ -12304,14 +14588,14 @@
       <c r="A31" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="36">
         <f>SUM(B26:F30)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="24"/>
       <c r="H31" s="5">
         <f>-B31+'Presupuesto 2023'!F39</f>
@@ -12447,14 +14731,14 @@
       <c r="A37" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="36">
         <f>SUM(B32:F36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
       <c r="G37" s="24"/>
       <c r="H37" s="5">
         <f>-B37+'Presupuesto 2023'!G39</f>
@@ -12590,14 +14874,14 @@
       <c r="A43" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="36">
         <f>SUM(B38:F42)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="24"/>
       <c r="H43" s="5">
         <f>-B43+'Presupuesto 2023'!H39</f>
@@ -12733,14 +15017,14 @@
       <c r="A49" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="36">
         <f>SUM(B44:F48)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="24"/>
       <c r="H49" s="5">
         <f>-B49+'Presupuesto 2023'!I39</f>
@@ -12876,14 +15160,14 @@
       <c r="A55" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="36">
         <f>SUM(B50:F54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
       <c r="G55" s="24"/>
       <c r="H55" s="5">
         <f>-B55+'Presupuesto 2023'!J39</f>
@@ -13019,14 +15303,14 @@
       <c r="A61" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="36">
         <f>SUM(B56:F60)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
       <c r="G61" s="24"/>
       <c r="H61" s="5">
         <f>-B61+'Presupuesto 2023'!K39</f>
@@ -13162,14 +15446,14 @@
       <c r="A67" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="36">
         <f>SUM(B62:F66)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
       <c r="G67" s="24"/>
       <c r="H67" s="5">
         <f>-B67+'Presupuesto 2023'!L39</f>
@@ -13305,14 +15589,14 @@
       <c r="A73" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="36">
         <f>SUM(B68:F72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
       <c r="G73" s="24"/>
       <c r="H73" s="5">
         <f>-B73+'Presupuesto 2023'!M39</f>
@@ -13320,18 +15604,66 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
       <c r="G74" s="29"/>
       <c r="H74" s="5">
         <f>SUM(H7,H13,H19,H25,H31,H37,H43,H49,H55,H61,H67,H73)</f>
-        <v>544.07999999999993</v>
+        <v>531.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="B76">
+        <f>+A76*0.16</f>
+        <v>12.016</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f>+B76+A76</f>
+        <v>87.116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f>+B77/H75</f>
+        <v>4.5184647302904564</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>46.16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>30.16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>SUM(A79:A80)</f>
+        <v>76.319999999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>+A81/H75</f>
+        <v>3.9585062240663893</v>
       </c>
     </row>
   </sheetData>
@@ -13708,7 +16040,7 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -13780,7 +16112,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
@@ -13789,11 +16121,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="23">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="G3" s="23">
         <f>SUM(B3:F3)</f>
-        <v>1.35</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -13876,18 +16208,18 @@
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="36">
         <f>SUM(B2:F6)</f>
-        <v>1.35</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="24"/>
       <c r="H7" s="5">
         <f>-B7+'Presupuesto 2023'!B46</f>
-        <v>18.649999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -14019,14 +16351,14 @@
       <c r="A13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="36">
         <f>SUM(B8:F12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="24"/>
       <c r="H13" s="5">
         <f>-B13+'Presupuesto 2023'!C46</f>
@@ -14162,14 +16494,14 @@
       <c r="A19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="36">
         <f>SUM(B14:F18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="24"/>
       <c r="H19" s="5">
         <f>-B19+'Presupuesto 2023'!D46</f>
@@ -14305,14 +16637,14 @@
       <c r="A25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="36">
         <f>SUM(B20:F24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="24"/>
       <c r="H25" s="5">
         <f>-B25+'Presupuesto 2023'!E46</f>
@@ -14448,14 +16780,14 @@
       <c r="A31" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="36">
         <f>SUM(B26:F30)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="24"/>
       <c r="H31" s="5">
         <f>-B31+'Presupuesto 2023'!F46</f>
@@ -14591,14 +16923,14 @@
       <c r="A37" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="36">
         <f>SUM(B32:F36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
       <c r="G37" s="24"/>
       <c r="H37" s="5">
         <f>-B37+'Presupuesto 2023'!G46</f>
@@ -14734,14 +17066,14 @@
       <c r="A43" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="36">
         <f>SUM(B38:F42)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="24"/>
       <c r="H43" s="5">
         <f>-B43+'Presupuesto 2023'!H46</f>
@@ -14877,14 +17209,14 @@
       <c r="A49" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="36">
         <f>SUM(B44:F48)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="24"/>
       <c r="H49" s="5">
         <f>-B49+'Presupuesto 2023'!I46</f>
@@ -15020,14 +17352,14 @@
       <c r="A55" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="36">
         <f>SUM(B50:F54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
       <c r="G55" s="24"/>
       <c r="H55" s="5">
         <f>-B55+'Presupuesto 2023'!J46</f>
@@ -15163,14 +17495,14 @@
       <c r="A61" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="36">
         <f>SUM(B56:F60)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
       <c r="G61" s="24"/>
       <c r="H61" s="5">
         <f>-B61+'Presupuesto 2023'!K46</f>
@@ -15306,14 +17638,14 @@
       <c r="A67" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="36">
         <f>SUM(B62:F66)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
       <c r="G67" s="24"/>
       <c r="H67" s="5">
         <f>-B67+'Presupuesto 2023'!L46</f>
@@ -15449,14 +17781,14 @@
       <c r="A73" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="36">
         <f>SUM(B68:F72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
       <c r="G73" s="24"/>
       <c r="H73" s="5">
         <f>-B73+'Presupuesto 2023'!M46</f>
@@ -15464,18 +17796,18 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
       <c r="G74" s="29"/>
       <c r="H74" s="5">
         <f>SUM(H7,H13,H19,H25,H31,H37,H43,H49,H55,H61,H67,H73)</f>
-        <v>388.65</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -15849,10 +18181,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -15923,11 +18255,11 @@
         <v>0</v>
       </c>
       <c r="E3" s="23">
-        <v>10.95</v>
+        <v>11.4</v>
       </c>
       <c r="F3" s="23">
         <f>SUM(B3:E3)</f>
-        <v>10.95</v>
+        <v>11.4</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" s="30"/>
@@ -16003,17 +18335,17 @@
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="36">
         <f>SUM(B2:E6)</f>
-        <v>10.95</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+        <v>11.4</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="24"/>
       <c r="G7" s="5">
         <f>-B7+'Presupuesto 2023'!B51</f>
-        <v>84.05</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -16130,13 +18462,13 @@
       <c r="A13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="36">
         <f>SUM(B8:E12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="24"/>
       <c r="G13" s="5">
         <f>-B13+'Presupuesto 2023'!C51</f>
@@ -16257,13 +18589,13 @@
       <c r="A19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="36">
         <f>SUM(B14:E18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="24"/>
       <c r="G19" s="5">
         <f>-B19+'Presupuesto 2023'!D51</f>
@@ -16384,13 +18716,13 @@
       <c r="A25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="36">
         <f>SUM(B20:E24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="24"/>
       <c r="G25" s="5">
         <f>-B25+'Presupuesto 2023'!E51</f>
@@ -16511,13 +18843,13 @@
       <c r="A31" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="36">
         <f>SUM(B26:E30)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="24"/>
       <c r="G31" s="5">
         <f>-B31+'Presupuesto 2023'!F51</f>
@@ -16638,13 +18970,13 @@
       <c r="A37" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="36">
         <f>SUM(B32:E36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="24"/>
       <c r="G37" s="5">
         <f>-B37+'Presupuesto 2023'!G51</f>
@@ -16765,13 +19097,13 @@
       <c r="A43" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="36">
         <f>SUM(B38:E42)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="24"/>
       <c r="G43" s="5">
         <f>-B43+'Presupuesto 2023'!H51</f>
@@ -16892,13 +19224,13 @@
       <c r="A49" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="36">
         <f>SUM(B44:E48)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="24"/>
       <c r="G49" s="5">
         <f>-B49+'Presupuesto 2023'!I51</f>
@@ -17019,13 +19351,13 @@
       <c r="A55" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="36">
         <f>SUM(B50:E54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="24"/>
       <c r="G55" s="5">
         <f>-B55+'Presupuesto 2023'!J51</f>
@@ -17146,13 +19478,13 @@
       <c r="A61" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="36">
         <f>SUM(B56:E60)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="24"/>
       <c r="G61" s="5">
         <f>-B61+'Presupuesto 2023'!K51</f>
@@ -17273,13 +19605,13 @@
       <c r="A67" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="36">
         <f>SUM(B62:E66)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
       <c r="F67" s="24"/>
       <c r="G67" s="5">
         <f>-B67+'Presupuesto 2023'!L51</f>
@@ -17400,13 +19732,13 @@
       <c r="A73" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="36">
         <f>SUM(B68:E72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
       <c r="F73" s="24"/>
       <c r="G73" s="5">
         <f>-B73+'Presupuesto 2023'!M51</f>
@@ -17414,35 +19746,65 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="29"/>
       <c r="G74" s="5">
         <f>SUM(G7,G13,G19,G25,G31,G37,G43,G49,G55,G61,G67,G73)</f>
-        <v>499.05</v>
+        <v>498.6</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>19.28</v>
+      </c>
       <c r="I75">
         <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>6.62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
       <c r="E76" s="30"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>79.31</v>
+      </c>
+      <c r="B77">
+        <f>+A77*0.16</f>
+        <v>12.6896</v>
+      </c>
       <c r="E77" s="30"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f>+B77+A77</f>
+        <v>91.999600000000001</v>
+      </c>
       <c r="E78" s="30"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f>+B78/G75</f>
+        <v>4.7717634854771784</v>
+      </c>
       <c r="E79" s="30"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f>+B79+A76</f>
+        <v>11.391763485477178</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -17815,10 +20177,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -17885,17 +20247,17 @@
         <v>0</v>
       </c>
       <c r="C3" s="23">
-        <v>5.22</v>
+        <v>5.21</v>
       </c>
       <c r="D3" s="23">
         <v>0</v>
       </c>
       <c r="E3" s="23">
-        <v>10.17</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="F3" s="23">
         <f>SUM(B3:E3)</f>
-        <v>15.39</v>
+        <v>15.329999999999998</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" s="30"/>
@@ -17971,17 +20333,17 @@
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="36">
         <f>SUM(B2:E6)</f>
-        <v>15.39</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+        <v>15.329999999999998</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="24"/>
       <c r="G7" s="5">
         <f>-B7+'Presupuesto 2023'!B56</f>
-        <v>61.61</v>
+        <v>61.67</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -18098,13 +20460,13 @@
       <c r="A13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="36">
         <f>SUM(B8:E12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="24"/>
       <c r="G13" s="5">
         <f>-B13+'Presupuesto 2023'!C56</f>
@@ -18225,13 +20587,13 @@
       <c r="A19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="36">
         <f>SUM(B14:E18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="24"/>
       <c r="G19" s="5">
         <f>-B19+'Presupuesto 2023'!D56</f>
@@ -18352,13 +20714,13 @@
       <c r="A25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="36">
         <f>SUM(B20:E24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="24"/>
       <c r="G25" s="5">
         <f>-B25+'Presupuesto 2023'!E56</f>
@@ -18479,13 +20841,13 @@
       <c r="A31" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="36">
         <f>SUM(B26:E30)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="24"/>
       <c r="G31" s="5">
         <f>-B31+'Presupuesto 2023'!F56</f>
@@ -18606,13 +20968,13 @@
       <c r="A37" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="36">
         <f>SUM(B32:E36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="24"/>
       <c r="G37" s="5">
         <f>-B37+'Presupuesto 2023'!G56</f>
@@ -18733,13 +21095,13 @@
       <c r="A43" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="36">
         <f>SUM(B38:E42)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="24"/>
       <c r="G43" s="5">
         <f>-B43+'Presupuesto 2023'!H56</f>
@@ -18860,13 +21222,13 @@
       <c r="A49" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="36">
         <f>SUM(B44:E48)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="24"/>
       <c r="G49" s="5">
         <f>-B49+'Presupuesto 2023'!I56</f>
@@ -18987,13 +21349,13 @@
       <c r="A55" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="36">
         <f>SUM(B50:E54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="24"/>
       <c r="G55" s="5">
         <f>-B55+'Presupuesto 2023'!J56</f>
@@ -19114,13 +21476,13 @@
       <c r="A61" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="36">
         <f>SUM(B56:E60)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="24"/>
       <c r="G61" s="5">
         <f>-B61+'Presupuesto 2023'!K56</f>
@@ -19193,7 +21555,7 @@
       </c>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>72</v>
       </c>
@@ -19215,7 +21577,7 @@
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>73</v>
       </c>
@@ -19237,24 +21599,24 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" ht="18.75" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="18.75" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="36">
         <f>SUM(B62:E66)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
       <c r="F67" s="24"/>
       <c r="G67" s="5">
         <f>-B67+'Presupuesto 2023'!L56</f>
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>69</v>
       </c>
@@ -19276,7 +21638,7 @@
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>70</v>
       </c>
@@ -19298,7 +21660,7 @@
       </c>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>71</v>
       </c>
@@ -19320,7 +21682,7 @@
       </c>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>72</v>
       </c>
@@ -19342,7 +21704,7 @@
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>73</v>
       </c>
@@ -19364,48 +21726,123 @@
       </c>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="18.75" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="18.75" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="36">
         <f>SUM(B68:E72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
       <c r="F73" s="24"/>
       <c r="G73" s="5">
         <f>-B73+'Presupuesto 2023'!M56</f>
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="29"/>
       <c r="G74" s="5">
         <f>SUM(G7,G13,G19,G25,G31,G37,G43,G49,G55,G61,G67,G73)</f>
-        <v>313.61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>313.67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>19.239999999999998</v>
+      </c>
       <c r="E76" s="30"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>54.83</v>
+      </c>
       <c r="E77" s="30"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>87.76</v>
+      </c>
       <c r="E78" s="30"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>58.07</v>
+      </c>
       <c r="E79" s="30"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f>SUM(A76:A79)</f>
+        <v>219.89999999999998</v>
+      </c>
+      <c r="B80">
+        <f>+A80*0.16</f>
+        <v>35.183999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f>+A80+B80</f>
+        <v>255.08399999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f>+A81/2</f>
+        <v>127.54199999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f>+A82/H75</f>
+        <v>6.6152489626556008</v>
+      </c>
+      <c r="B83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>58.14</v>
+      </c>
+      <c r="B84">
+        <f>+A84*0.16</f>
+        <v>9.3024000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f>+A84+B84</f>
+        <v>67.442400000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f>+B85/H75</f>
+        <v>3.4980497925311203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f>+B86+A83</f>
+        <v>10.113298755186721</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -19955,12 +22392,12 @@
       <c r="A7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="36">
         <f>SUM(B2:D6)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="5">
         <f>-B7+'Presupuesto 2023'!B61</f>
         <v>40</v>
@@ -20045,12 +22482,12 @@
       <c r="A13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="36">
         <f>SUM(B8:D12)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="5">
         <f>-B13+'Presupuesto 2023'!C61</f>
         <v>0</v>
@@ -20135,12 +22572,12 @@
       <c r="A19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="36">
         <f>SUM(B14:D18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="5">
         <f>-B19+'Presupuesto 2023'!D61</f>
         <v>40</v>
@@ -20225,12 +22662,12 @@
       <c r="A25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="36">
         <f>SUM(B20:D24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="5">
         <f>-B25+'Presupuesto 2023'!E61</f>
         <v>0</v>
@@ -20315,12 +22752,12 @@
       <c r="A31" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="36">
         <f>SUM(B26:D30)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="5">
         <f>-B31+'Presupuesto 2023'!F61</f>
         <v>40</v>
@@ -20405,12 +22842,12 @@
       <c r="A37" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="36">
         <f>SUM(B32:D36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="5">
         <f>-B37+'Presupuesto 2023'!G61</f>
         <v>0</v>
@@ -20495,12 +22932,12 @@
       <c r="A43" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="32">
+      <c r="B43" s="36">
         <f>SUM(B38:D42)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="5">
         <f>-B43+'Presupuesto 2023'!H61</f>
         <v>40</v>
@@ -20585,12 +23022,12 @@
       <c r="A49" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="32">
+      <c r="B49" s="36">
         <f>SUM(B44:D48)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="5">
         <f>-B49+'Presupuesto 2023'!I61</f>
         <v>0</v>
@@ -20675,12 +23112,12 @@
       <c r="A55" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="32">
+      <c r="B55" s="36">
         <f>SUM(B50:D54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="5">
         <f>-B55+'Presupuesto 2023'!J61</f>
         <v>40</v>
@@ -20765,12 +23202,12 @@
       <c r="A61" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="36">
         <f>SUM(B56:D60)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="5">
         <f>-B61+'Presupuesto 2023'!K61</f>
         <v>0</v>
@@ -20855,12 +23292,12 @@
       <c r="A67" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="36">
         <f>SUM(B62:D66)</f>
         <v>0</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
       <c r="E67" s="5">
         <f>-B67+'Presupuesto 2023'!L61</f>
         <v>40</v>
@@ -20945,24 +23382,24 @@
       <c r="A73" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="32">
+      <c r="B73" s="36">
         <f>SUM(B68:D72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
       <c r="E73" s="5">
         <f>-B73+'Presupuesto 2023'!M61</f>
         <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
       <c r="E74" s="5">
         <f>SUM(E7,E13,E19,E25,E31,E37,E43,E49,E55,E61,E67,E73)</f>
         <v>280</v>
